--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1976.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1976.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.001*"foreign" + 0.001*"import" + 0.001*"bank" + 0.001*"export" + 0.001*"exchange" + 0.001*"currency" + 0.001*"per" + 0.001*"country" + 0.001*"may" + 0.001*"rate"</t>
-  </si>
-  <si>
-    <t>0.005*"bank" + 0.004*"import" + 0.004*"foreign" + 0.003*"may" + 0.003*"exchange" + 0.003*"export" + 0.003*"currency" + 0.002*"per" + 0.002*"country" + 0.002*"account"</t>
-  </si>
-  <si>
-    <t>0.001*"import" + 0.001*"foreign" + 0.001*"exchange" + 0.001*"bank" + 0.001*"export" + 0.001*"may" + 0.001*"currency" + 0.001*"per" + 0.001*"country" + 0.001*"payment"</t>
-  </si>
-  <si>
-    <t>0.019*"import" + 0.016*"foreign" + 0.015*"bank" + 0.014*"exchange" + 0.012*"may" + 0.012*"export" + 0.010*"currency" + 0.009*"per" + 0.009*"account" + 0.009*"payment"</t>
-  </si>
-  <si>
-    <t>0.002*"import" + 0.002*"bank" + 0.001*"export" + 0.001*"foreign" + 0.001*"currency" + 0.001*"may" + 0.001*"per" + 0.001*"exchange" + 0.001*"country" + 0.001*"account"</t>
+    <t>0.052*"gold" + 0.035*"fund" + 0.028*"monetary" + 0.022*"international" + 0.021*"december" + 0.018*"redistribution" + 0.015*"coin" + 0.011*"united" + 0.009*"export" + 0.009*"sell"</t>
+  </si>
+  <si>
+    <t>0.042*"account" + 0.039*"currency" + 0.034*"may" + 0.028*"payment" + 0.024*"foreign" + 0.022*"resident" + 0.021*"country" + 0.020*"export" + 0.019*"nonresident" + 0.015*"proceeds"</t>
+  </si>
+  <si>
+    <t>0.089*"import" + 0.030*"license" + 0.024*"export" + 0.021*"good" + 0.018*"certain" + 0.015*"country" + 0.012*"issue" + 0.012*"trade" + 0.012*"franc" + 0.011*"subject"</t>
+  </si>
+  <si>
+    <t>0.039*"exchange" + 0.022*"foreign" + 0.021*"rate" + 0.017*"dollar" + 0.015*"may" + 0.015*"control" + 0.014*"take" + 0.012*"travel" + 0.011*"market" + 0.011*"ing"</t>
+  </si>
+  <si>
+    <t>0.052*"bank" + 0.033*"per" + 0.023*"cent" + 0.022*"foreign" + 0.016*"capital" + 0.015*"exchange" + 0.015*"central" + 0.012*"must" + 0.012*"u" + 0.010*"credit"</t>
   </si>
 </sst>
 </file>
